--- a/data/OUTPUT/OUTPUT_REPORTS/Выгрузка с прода ФОИВ_report.xlsx
+++ b/data/OUTPUT/OUTPUT_REPORTS/Выгрузка с прода ФОИВ_report.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
